--- a/单词日记3.21.xlsx
+++ b/单词日记3.21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng\Desktop\学习笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A79071-8688-486E-9ED3-04212B48444C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5118A81-EE16-47D6-80E4-D06193727B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>relevant</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,54 @@
   </si>
   <si>
     <t>February</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintainable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recruiter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opinion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replicative</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,17 +431,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -417,25 +465,75 @@
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
